--- a/RWMOP_datalist/RWMOP6/EMO_cv_RWMOP6.xlsx
+++ b/RWMOP_datalist/RWMOP6/EMO_cv_RWMOP6.xlsx
@@ -58,7 +58,7 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="3.16796875" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -86,7 +86,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>17.11442469378586</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0">
         <v>7.7710352028639971</v>
@@ -148,7 +148,7 @@
         <v>0.70000002968835373</v>
       </c>
       <c r="C2" s="0">
-        <v>16.817129232145362</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0">
         <v>7.8151737439182041</v>
@@ -210,7 +210,7 @@
         <v>0.70000001841418857</v>
       </c>
       <c r="C3" s="0">
-        <v>16.582368973653633</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0">
         <v>7.7762836575039369</v>
@@ -272,7 +272,7 @@
         <v>0.70000003316263815</v>
       </c>
       <c r="C4" s="0">
-        <v>17.810796000516525</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0">
         <v>7.7913190034824282</v>
@@ -334,7 +334,7 @@
         <v>0.70000000749036706</v>
       </c>
       <c r="C5" s="0">
-        <v>17.11263044452296</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0">
         <v>7.773171575133599</v>
@@ -396,7 +396,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>16.581170195878236</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0">
         <v>7.7731703531718894</v>
@@ -458,7 +458,7 @@
         <v>0.70000000749036695</v>
       </c>
       <c r="C7" s="0">
-        <v>17.12364397483385</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0">
         <v>7.773171575133599</v>
@@ -520,7 +520,7 @@
         <v>0.70000007087959837</v>
       </c>
       <c r="C8" s="0">
-        <v>17.186664926743269</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0">
         <v>7.7754302957716508</v>
@@ -582,7 +582,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>16.57101828442244</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0">
         <v>7.7554148168233361</v>
@@ -644,7 +644,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>16.57127050810746</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0">
         <v>7.7554148168233361</v>
@@ -706,7 +706,7 @@
         <v>0.70001215125349203</v>
       </c>
       <c r="C11" s="0">
-        <v>16.630099769053551</v>
+        <v>17</v>
       </c>
       <c r="D11" s="0">
         <v>7.8544182920981536</v>
@@ -768,7 +768,7 @@
         <v>0.70000095778354621</v>
       </c>
       <c r="C12" s="0">
-        <v>16.510000000000005</v>
+        <v>17</v>
       </c>
       <c r="D12" s="0">
         <v>7.755310596444307</v>
@@ -830,7 +830,7 @@
         <v>0.70180812012218319</v>
       </c>
       <c r="C13" s="0">
-        <v>18.338066194285304</v>
+        <v>18</v>
       </c>
       <c r="D13" s="0">
         <v>7.759007437906206</v>
@@ -892,7 +892,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>16.57127050810746</v>
+        <v>17</v>
       </c>
       <c r="D14" s="0">
         <v>7.7554148168233361</v>
@@ -954,7 +954,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>16.543578741664934</v>
+        <v>17</v>
       </c>
       <c r="D15" s="0">
         <v>7.7716795238959939</v>
@@ -1016,7 +1016,7 @@
         <v>0.70009540375712287</v>
       </c>
       <c r="C16" s="0">
-        <v>17.572247055060345</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0">
         <v>7.953733431434209</v>
@@ -1078,7 +1078,7 @@
         <v>0.70133778362391341</v>
       </c>
       <c r="C17" s="0">
-        <v>18.885595688742505</v>
+        <v>19</v>
       </c>
       <c r="D17" s="0">
         <v>7.7730155264480043</v>
@@ -1140,7 +1140,7 @@
         <v>0.70234774986335125</v>
       </c>
       <c r="C18" s="0">
-        <v>16.889314981333918</v>
+        <v>17</v>
       </c>
       <c r="D18" s="0">
         <v>7.659307120071972</v>
@@ -1202,7 +1202,7 @@
         <v>0.70002626691973124</v>
       </c>
       <c r="C19" s="0">
-        <v>16.576260746854452</v>
+        <v>17</v>
       </c>
       <c r="D19" s="0">
         <v>7.7348398285818725</v>
@@ -1264,7 +1264,7 @@
         <v>0.7000022186035979</v>
       </c>
       <c r="C20" s="0">
-        <v>16.882756076055713</v>
+        <v>17</v>
       </c>
       <c r="D20" s="0">
         <v>7.7872814947995517</v>
@@ -1326,7 +1326,7 @@
         <v>0.70000480912518526</v>
       </c>
       <c r="C21" s="0">
-        <v>17.18150010706114</v>
+        <v>17</v>
       </c>
       <c r="D21" s="0">
         <v>7.7860954421081354</v>
@@ -1388,7 +1388,7 @@
         <v>0.70002614259168372</v>
       </c>
       <c r="C22" s="0">
-        <v>17.305494181885187</v>
+        <v>17</v>
       </c>
       <c r="D22" s="0">
         <v>7.659307120071972</v>
@@ -1450,7 +1450,7 @@
         <v>0.7000015374850509</v>
       </c>
       <c r="C23" s="0">
-        <v>17.025143389150781</v>
+        <v>17</v>
       </c>
       <c r="D23" s="0">
         <v>7.8888723458980987</v>
@@ -1512,7 +1512,7 @@
         <v>0.72113194124393576</v>
       </c>
       <c r="C24" s="0">
-        <v>18.224984284076164</v>
+        <v>18</v>
       </c>
       <c r="D24" s="0">
         <v>7.7005287792039052</v>
@@ -1574,7 +1574,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>17.599396964514078</v>
+        <v>18</v>
       </c>
       <c r="D25" s="0">
         <v>7.760124068264723</v>
@@ -1636,7 +1636,7 @@
         <v>0.70001941645233801</v>
       </c>
       <c r="C26" s="0">
-        <v>17.057926754980965</v>
+        <v>17</v>
       </c>
       <c r="D26" s="0">
         <v>7.8758375443403974</v>
@@ -1698,7 +1698,7 @@
         <v>0.70001919183900196</v>
       </c>
       <c r="C27" s="0">
-        <v>17.236615828756051</v>
+        <v>17</v>
       </c>
       <c r="D27" s="0">
         <v>7.8678557699173446</v>
@@ -1760,7 +1760,7 @@
         <v>0.70001934559552526</v>
       </c>
       <c r="C28" s="0">
-        <v>17.35115916547533</v>
+        <v>17</v>
       </c>
       <c r="D28" s="0">
         <v>7.9029762463893718</v>
@@ -1822,7 +1822,7 @@
         <v>0.70065265713367408</v>
       </c>
       <c r="C29" s="0">
-        <v>16.683965761530452</v>
+        <v>17</v>
       </c>
       <c r="D29" s="0">
         <v>7.7576325799388863</v>
@@ -1884,7 +1884,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>16.794192309495962</v>
+        <v>17</v>
       </c>
       <c r="D30" s="0">
         <v>7.8152136125687477</v>
@@ -1946,7 +1946,7 @@
         <v>0.70055847126376403</v>
       </c>
       <c r="C31" s="0">
-        <v>16.784289377237499</v>
+        <v>17</v>
       </c>
       <c r="D31" s="0">
         <v>7.7573518968311577</v>
@@ -2008,7 +2008,7 @@
         <v>0.70030091804225947</v>
       </c>
       <c r="C32" s="0">
-        <v>18.789372695762829</v>
+        <v>19</v>
       </c>
       <c r="D32" s="0">
         <v>7.7731948948808487</v>
@@ -2070,7 +2070,7 @@
         <v>0.70000270672030429</v>
       </c>
       <c r="C33" s="0">
-        <v>17.445785075855646</v>
+        <v>17</v>
       </c>
       <c r="D33" s="0">
         <v>7.8805497327971397</v>
@@ -2132,7 +2132,7 @@
         <v>0.70000019084314913</v>
       </c>
       <c r="C34" s="0">
-        <v>16.681750737011164</v>
+        <v>17</v>
       </c>
       <c r="D34" s="0">
         <v>7.9411709799723518</v>
@@ -2194,7 +2194,7 @@
         <v>0.70000135827059995</v>
       </c>
       <c r="C35" s="0">
-        <v>19.21462038003213</v>
+        <v>19</v>
       </c>
       <c r="D35" s="0">
         <v>7.6183148192796315</v>
@@ -2256,7 +2256,7 @@
         <v>0.7032318980426614</v>
       </c>
       <c r="C36" s="0">
-        <v>16.566584944687946</v>
+        <v>17</v>
       </c>
       <c r="D36" s="0">
         <v>7.8005953289555361</v>
@@ -2318,7 +2318,7 @@
         <v>0.70771095916713556</v>
       </c>
       <c r="C37" s="0">
-        <v>18.080168923533048</v>
+        <v>18</v>
       </c>
       <c r="D37" s="0">
         <v>7.7976837430040842</v>
@@ -2380,7 +2380,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>16.582882696011271</v>
+        <v>17</v>
       </c>
       <c r="D38" s="0">
         <v>7.766608359425982</v>
@@ -2442,7 +2442,7 @@
         <v>0.70000004449617104</v>
       </c>
       <c r="C39" s="0">
-        <v>16.661330419614742</v>
+        <v>17</v>
       </c>
       <c r="D39" s="0">
         <v>7.7991384707159987</v>
@@ -2504,7 +2504,7 @@
         <v>0.7000015789422056</v>
       </c>
       <c r="C40" s="0">
-        <v>20.382968351467351</v>
+        <v>20</v>
       </c>
       <c r="D40" s="0">
         <v>7.8252508286848652</v>
@@ -2566,7 +2566,7 @@
         <v>0.70000317787230726</v>
       </c>
       <c r="C41" s="0">
-        <v>16.678038511829051</v>
+        <v>17</v>
       </c>
       <c r="D41" s="0">
         <v>7.8162276896509937</v>
@@ -2628,7 +2628,7 @@
         <v>0.70000317787230726</v>
       </c>
       <c r="C42" s="0">
-        <v>16.678038511829051</v>
+        <v>17</v>
       </c>
       <c r="D42" s="0">
         <v>7.8162276896509937</v>
@@ -2690,7 +2690,7 @@
         <v>0.70000031389536599</v>
       </c>
       <c r="C43" s="0">
-        <v>16.712092214325963</v>
+        <v>17</v>
       </c>
       <c r="D43" s="0">
         <v>7.7547715265066053</v>
@@ -2752,7 +2752,7 @@
         <v>0.70003205047389938</v>
       </c>
       <c r="C44" s="0">
-        <v>17.153490257228988</v>
+        <v>17</v>
       </c>
       <c r="D44" s="0">
         <v>7.7558021151912619</v>
@@ -2814,7 +2814,7 @@
         <v>0.7000003138953661</v>
       </c>
       <c r="C45" s="0">
-        <v>16.712092214325963</v>
+        <v>17</v>
       </c>
       <c r="D45" s="0">
         <v>7.7534026516712391</v>
@@ -2876,7 +2876,7 @@
         <v>0.70001041961701349</v>
       </c>
       <c r="C46" s="0">
-        <v>16.679874025364455</v>
+        <v>17</v>
       </c>
       <c r="D46" s="0">
         <v>7.8116586631204825</v>
@@ -2938,7 +2938,7 @@
         <v>0.7014565915729043</v>
       </c>
       <c r="C47" s="0">
-        <v>17.049679749304872</v>
+        <v>17</v>
       </c>
       <c r="D47" s="0">
         <v>7.7203813369834275</v>
@@ -3000,7 +3000,7 @@
         <v>0.70009844872850668</v>
       </c>
       <c r="C48" s="0">
-        <v>16.992769137134694</v>
+        <v>17</v>
       </c>
       <c r="D48" s="0">
         <v>7.8617274762982543</v>
@@ -3062,7 +3062,7 @@
         <v>0.70002546646810671</v>
       </c>
       <c r="C49" s="0">
-        <v>17.161305508449455</v>
+        <v>17</v>
       </c>
       <c r="D49" s="0">
         <v>7.7401082905293732</v>
@@ -3124,7 +3124,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>18.269342253426572</v>
+        <v>18</v>
       </c>
       <c r="D50" s="0">
         <v>7.7208536805610732</v>
@@ -3186,7 +3186,7 @@
         <v>0.70002738074343596</v>
       </c>
       <c r="C51" s="0">
-        <v>17.291288179151771</v>
+        <v>17</v>
       </c>
       <c r="D51" s="0">
         <v>7.7704988897613072</v>
@@ -3248,7 +3248,7 @@
         <v>0.7000044090613855</v>
       </c>
       <c r="C52" s="0">
-        <v>17.044142195938694</v>
+        <v>17</v>
       </c>
       <c r="D52" s="0">
         <v>7.7615207270337994</v>
@@ -3310,7 +3310,7 @@
         <v>0.70000148636675164</v>
       </c>
       <c r="C53" s="0">
-        <v>17.035027761963072</v>
+        <v>17</v>
       </c>
       <c r="D53" s="0">
         <v>7.8831969926614756</v>
@@ -3372,7 +3372,7 @@
         <v>0.70000561419173135</v>
       </c>
       <c r="C54" s="0">
-        <v>17.219667301346782</v>
+        <v>17</v>
       </c>
       <c r="D54" s="0">
         <v>7.9694095232599524</v>
@@ -3434,7 +3434,7 @@
         <v>0.70000175945168785</v>
       </c>
       <c r="C55" s="0">
-        <v>17.348981770420203</v>
+        <v>17</v>
       </c>
       <c r="D55" s="0">
         <v>7.7182616699930566</v>
@@ -3496,7 +3496,7 @@
         <v>0.70000547950678937</v>
       </c>
       <c r="C56" s="0">
-        <v>17.438876228587546</v>
+        <v>17</v>
       </c>
       <c r="D56" s="0">
         <v>7.7167859052118466</v>
@@ -3558,7 +3558,7 @@
         <v>0.70000528207221169</v>
       </c>
       <c r="C57" s="0">
-        <v>16.621148602746626</v>
+        <v>17</v>
       </c>
       <c r="D57" s="0">
         <v>7.7627691883160566</v>
@@ -3620,7 +3620,7 @@
         <v>0.70000879477508304</v>
       </c>
       <c r="C58" s="0">
-        <v>17.174901497366619</v>
+        <v>17</v>
       </c>
       <c r="D58" s="0">
         <v>7.8702162421842896</v>
@@ -3682,7 +3682,7 @@
         <v>0.70000583940399419</v>
       </c>
       <c r="C59" s="0">
-        <v>16.955986763337798</v>
+        <v>17</v>
       </c>
       <c r="D59" s="0">
         <v>7.8720476408890061</v>
@@ -3744,7 +3744,7 @@
         <v>0.70000272528068841</v>
       </c>
       <c r="C60" s="0">
-        <v>17.345816829122143</v>
+        <v>17</v>
       </c>
       <c r="D60" s="0">
         <v>7.7920422825177722</v>
@@ -3806,7 +3806,7 @@
         <v>0.70000010325310158</v>
       </c>
       <c r="C61" s="0">
-        <v>20.001147293024697</v>
+        <v>20</v>
       </c>
       <c r="D61" s="0">
         <v>7.7741729529442614</v>
@@ -3868,7 +3868,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>17.940400678478795</v>
+        <v>18</v>
       </c>
       <c r="D62" s="0">
         <v>7.7574375227752288</v>
@@ -3930,7 +3930,7 @@
         <v>0.70000009028659949</v>
       </c>
       <c r="C63" s="0">
-        <v>17.080590347298777</v>
+        <v>17</v>
       </c>
       <c r="D63" s="0">
         <v>7.7507517186182238</v>
@@ -3992,7 +3992,7 @@
         <v>0.70000009028659971</v>
       </c>
       <c r="C64" s="0">
-        <v>16.864924217970639</v>
+        <v>17</v>
       </c>
       <c r="D64" s="0">
         <v>7.804030644820628</v>
@@ -4054,7 +4054,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>16.761116240875097</v>
+        <v>17</v>
       </c>
       <c r="D65" s="0">
         <v>7.7571519035946865</v>
@@ -4116,7 +4116,7 @@
         <v>0.7000000889452076</v>
       </c>
       <c r="C66" s="0">
-        <v>17.080590347298774</v>
+        <v>17</v>
       </c>
       <c r="D66" s="0">
         <v>7.7741861577073941</v>
@@ -4178,7 +4178,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>17.950267469906173</v>
+        <v>18</v>
       </c>
       <c r="D67" s="0">
         <v>7.8083148718091016</v>
@@ -4240,7 +4240,7 @@
         <v>0.7000000587949271</v>
       </c>
       <c r="C68" s="0">
-        <v>16.82353880282248</v>
+        <v>17</v>
       </c>
       <c r="D68" s="0">
         <v>7.7146544955458918</v>
@@ -4302,7 +4302,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>16.590619418742165</v>
+        <v>17</v>
       </c>
       <c r="D69" s="0">
         <v>7.8091838747090376</v>
@@ -4364,7 +4364,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>17.232599051383495</v>
+        <v>17</v>
       </c>
       <c r="D70" s="0">
         <v>7.7510854382174657</v>
@@ -4426,7 +4426,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>18.835244110671603</v>
+        <v>19</v>
       </c>
       <c r="D71" s="0">
         <v>7.7297370758253825</v>
@@ -4488,7 +4488,7 @@
         <v>0.70000000115224381</v>
       </c>
       <c r="C72" s="0">
-        <v>17.43388030755936</v>
+        <v>17</v>
       </c>
       <c r="D72" s="0">
         <v>7.7501397522200763</v>
@@ -4550,7 +4550,7 @@
         <v>0.70000018648786111</v>
       </c>
       <c r="C73" s="0">
-        <v>17.341483828558815</v>
+        <v>17</v>
       </c>
       <c r="D73" s="0">
         <v>7.764168478588152</v>
@@ -4612,7 +4612,7 @@
         <v>0.70000018648786089</v>
       </c>
       <c r="C74" s="0">
-        <v>19.232544804161723</v>
+        <v>19</v>
       </c>
       <c r="D74" s="0">
         <v>7.7524876295718634</v>
@@ -4674,7 +4674,7 @@
         <v>0.70470059443663124</v>
       </c>
       <c r="C75" s="0">
-        <v>16.512333575139465</v>
+        <v>17</v>
       </c>
       <c r="D75" s="0">
         <v>7.75547387201921</v>
@@ -4736,7 +4736,7 @@
         <v>0.70030751218422327</v>
       </c>
       <c r="C76" s="0">
-        <v>17.337457829898387</v>
+        <v>17</v>
       </c>
       <c r="D76" s="0">
         <v>7.7719553193294244</v>
@@ -4798,7 +4798,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>18.835244110671603</v>
+        <v>19</v>
       </c>
       <c r="D77" s="0">
         <v>7.7520675185943206</v>
@@ -4860,7 +4860,7 @@
         <v>0.70000018648786089</v>
       </c>
       <c r="C78" s="0">
-        <v>17.233611128776374</v>
+        <v>17</v>
       </c>
       <c r="D78" s="0">
         <v>7.7526818101931134</v>
@@ -4922,7 +4922,7 @@
         <v>0.7002566106836674</v>
       </c>
       <c r="C79" s="0">
-        <v>16.517172141120732</v>
+        <v>17</v>
       </c>
       <c r="D79" s="0">
         <v>7.7293016359486622</v>
@@ -4984,7 +4984,7 @@
         <v>0.70623130532245226</v>
       </c>
       <c r="C80" s="0">
-        <v>17.2847502909623</v>
+        <v>17</v>
       </c>
       <c r="D80" s="0">
         <v>7.7527286492460998</v>
@@ -5046,7 +5046,7 @@
         <v>0.70000018472534209</v>
       </c>
       <c r="C81" s="0">
-        <v>17.342470108218809</v>
+        <v>17</v>
       </c>
       <c r="D81" s="0">
         <v>7.7624720980746158</v>
@@ -5108,7 +5108,7 @@
         <v>0.70000000115224381</v>
       </c>
       <c r="C82" s="0">
-        <v>17.304221807768833</v>
+        <v>17</v>
       </c>
       <c r="D82" s="0">
         <v>7.7089039199705747</v>
@@ -5170,7 +5170,7 @@
         <v>0.7015179293807875</v>
       </c>
       <c r="C83" s="0">
-        <v>16.517172141120732</v>
+        <v>17</v>
       </c>
       <c r="D83" s="0">
         <v>7.7620074613862977</v>
@@ -5232,7 +5232,7 @@
         <v>0.70000003772180275</v>
       </c>
       <c r="C84" s="0">
-        <v>18.915616396066341</v>
+        <v>19</v>
       </c>
       <c r="D84" s="0">
         <v>7.9083681233150802</v>
@@ -5294,7 +5294,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>17.689125090870643</v>
+        <v>18</v>
       </c>
       <c r="D85" s="0">
         <v>7.9499911659132394</v>
@@ -5356,7 +5356,7 @@
         <v>0.70000609602317065</v>
       </c>
       <c r="C86" s="0">
-        <v>17.449737204037966</v>
+        <v>17</v>
       </c>
       <c r="D86" s="0">
         <v>7.7732487055931987</v>
@@ -5418,7 +5418,7 @@
         <v>0.71662761934375208</v>
       </c>
       <c r="C87" s="0">
-        <v>20.077022880628562</v>
+        <v>20</v>
       </c>
       <c r="D87" s="0">
         <v>7.8647346575252968</v>
@@ -5480,7 +5480,7 @@
         <v>0.70000006051035379</v>
       </c>
       <c r="C88" s="0">
-        <v>18.022197214974888</v>
+        <v>18</v>
       </c>
       <c r="D88" s="0">
         <v>7.8957352363217215</v>
@@ -5542,7 +5542,7 @@
         <v>0.70038320418936428</v>
       </c>
       <c r="C89" s="0">
-        <v>17.253219617442049</v>
+        <v>17</v>
       </c>
       <c r="D89" s="0">
         <v>7.8550863845552721</v>
@@ -5604,7 +5604,7 @@
         <v>0.70004289834110356</v>
       </c>
       <c r="C90" s="0">
-        <v>17.03623648314813</v>
+        <v>17</v>
       </c>
       <c r="D90" s="0">
         <v>7.8794252827682332</v>
@@ -5666,7 +5666,7 @@
         <v>0.70080205928166728</v>
       </c>
       <c r="C91" s="0">
-        <v>19.099538148051128</v>
+        <v>19</v>
       </c>
       <c r="D91" s="0">
         <v>7.7870372040248501</v>
@@ -5728,7 +5728,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>17.943093878465941</v>
+        <v>18</v>
       </c>
       <c r="D92" s="0">
         <v>7.7615968233097172</v>
@@ -5790,7 +5790,7 @@
         <v>0.70000380289543584</v>
       </c>
       <c r="C93" s="0">
-        <v>17.142451866432658</v>
+        <v>17</v>
       </c>
       <c r="D93" s="0">
         <v>7.7072117845786776</v>
@@ -5852,7 +5852,7 @@
         <v>0.70000050756902499</v>
       </c>
       <c r="C94" s="0">
-        <v>18.889092765057399</v>
+        <v>19</v>
       </c>
       <c r="D94" s="0">
         <v>7.7839131052097033</v>
@@ -5914,7 +5914,7 @@
         <v>0.70001864321978191</v>
       </c>
       <c r="C95" s="0">
-        <v>19.579012778893983</v>
+        <v>20</v>
       </c>
       <c r="D95" s="0">
         <v>7.8136886806170072</v>
@@ -5976,7 +5976,7 @@
         <v>0.70008192807540959</v>
       </c>
       <c r="C96" s="0">
-        <v>17.093942389904228</v>
+        <v>17</v>
       </c>
       <c r="D96" s="0">
         <v>7.659439414792713</v>
@@ -6038,7 +6038,7 @@
         <v>0.70000004492010826</v>
       </c>
       <c r="C97" s="0">
-        <v>16.642601485019028</v>
+        <v>17</v>
       </c>
       <c r="D97" s="0">
         <v>7.7573864201136749</v>
@@ -6100,7 +6100,7 @@
         <v>0.70005234151361462</v>
       </c>
       <c r="C98" s="0">
-        <v>17.142451866432658</v>
+        <v>17</v>
       </c>
       <c r="D98" s="0">
         <v>7.7061463291463319</v>
@@ -6162,7 +6162,7 @@
         <v>0.70007004134093465</v>
       </c>
       <c r="C99" s="0">
-        <v>16.67720058721909</v>
+        <v>17</v>
       </c>
       <c r="D99" s="0">
         <v>7.7555101244000646</v>
@@ -6224,7 +6224,7 @@
         <v>0.70003871245299321</v>
       </c>
       <c r="C100" s="0">
-        <v>18.47366322454242</v>
+        <v>18</v>
       </c>
       <c r="D100" s="0">
         <v>7.706064793974619</v>
@@ -6286,7 +6286,7 @@
         <v>0.7118124291469895</v>
       </c>
       <c r="C101" s="0">
-        <v>16.571109686728761</v>
+        <v>17</v>
       </c>
       <c r="D101" s="0">
         <v>7.7689786457245553</v>
@@ -6348,7 +6348,7 @@
         <v>0.70000380289543584</v>
       </c>
       <c r="C102" s="0">
-        <v>19.59842901672118</v>
+        <v>20</v>
       </c>
       <c r="D102" s="0">
         <v>7.8193413466408446</v>
@@ -6410,7 +6410,7 @@
         <v>0.70003771859437747</v>
       </c>
       <c r="C103" s="0">
-        <v>16.67720058721909</v>
+        <v>17</v>
       </c>
       <c r="D103" s="0">
         <v>7.7555101244000646</v>
@@ -6472,7 +6472,7 @@
         <v>0.70022361711679371</v>
       </c>
       <c r="C104" s="0">
-        <v>17.198164621237591</v>
+        <v>17</v>
       </c>
       <c r="D104" s="0">
         <v>7.7514249339782033</v>
@@ -6534,7 +6534,7 @@
         <v>0.70000336614830538</v>
       </c>
       <c r="C105" s="0">
-        <v>17.45647111932244</v>
+        <v>17</v>
       </c>
       <c r="D105" s="0">
         <v>7.6508011793947901</v>
@@ -6596,7 +6596,7 @@
         <v>0.70000002962666452</v>
       </c>
       <c r="C106" s="0">
-        <v>16.942968493632648</v>
+        <v>17</v>
       </c>
       <c r="D106" s="0">
         <v>7.8337136232686664</v>
@@ -6658,7 +6658,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>17.626144506005108</v>
+        <v>18</v>
       </c>
       <c r="D107" s="0">
         <v>7.7587168935122328</v>
@@ -6720,7 +6720,7 @@
         <v>0.70009786212342706</v>
       </c>
       <c r="C108" s="0">
-        <v>17.111063401479928</v>
+        <v>17</v>
       </c>
       <c r="D108" s="0">
         <v>7.7484381624938381</v>
@@ -6782,7 +6782,7 @@
         <v>0.70000001382393062</v>
       </c>
       <c r="C109" s="0">
-        <v>17.392464108562152</v>
+        <v>17</v>
       </c>
       <c r="D109" s="0">
         <v>7.7586399501630741</v>
@@ -6844,7 +6844,7 @@
         <v>0.70009855110792418</v>
       </c>
       <c r="C110" s="0">
-        <v>18.016045703919257</v>
+        <v>18</v>
       </c>
       <c r="D110" s="0">
         <v>7.7581290995809198</v>
@@ -6906,7 +6906,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>17.521098801743328</v>
+        <v>18</v>
       </c>
       <c r="D111" s="0">
         <v>7.6867728966683497</v>
@@ -6968,7 +6968,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>17.799878727960849</v>
+        <v>18</v>
       </c>
       <c r="D112" s="0">
         <v>7.8691430154879578</v>
@@ -7030,7 +7030,7 @@
         <v>0.70000006584960439</v>
       </c>
       <c r="C113" s="0">
-        <v>16.639588729591814</v>
+        <v>17</v>
       </c>
       <c r="D113" s="0">
         <v>7.8145225883141736</v>
@@ -7092,7 +7092,7 @@
         <v>0.70000018569600875</v>
       </c>
       <c r="C114" s="0">
-        <v>16.976704686415054</v>
+        <v>17</v>
       </c>
       <c r="D114" s="0">
         <v>7.931303439756892</v>
@@ -7154,7 +7154,7 @@
         <v>0.70035327974704675</v>
       </c>
       <c r="C115" s="0">
-        <v>18.842260373515643</v>
+        <v>19</v>
       </c>
       <c r="D115" s="0">
         <v>7.7677918444960667</v>
@@ -7216,7 +7216,7 @@
         <v>0.70000018569600875</v>
       </c>
       <c r="C116" s="0">
-        <v>17.216095517594042</v>
+        <v>17</v>
       </c>
       <c r="D116" s="0">
         <v>7.7506523747006755</v>
@@ -7278,7 +7278,7 @@
         <v>0.70000018918607665</v>
       </c>
       <c r="C117" s="0">
-        <v>17.724334411366293</v>
+        <v>18</v>
       </c>
       <c r="D117" s="0">
         <v>7.8775513273364366</v>
@@ -7340,7 +7340,7 @@
         <v>0.70000036329533233</v>
       </c>
       <c r="C118" s="0">
-        <v>17.355799662504307</v>
+        <v>17</v>
       </c>
       <c r="D118" s="0">
         <v>7.7224703104219952</v>
@@ -7402,7 +7402,7 @@
         <v>0.7000000658496045</v>
       </c>
       <c r="C119" s="0">
-        <v>16.639588729591814</v>
+        <v>17</v>
       </c>
       <c r="D119" s="0">
         <v>7.8129570603637344</v>
@@ -7464,7 +7464,7 @@
         <v>0.70000018569600875</v>
       </c>
       <c r="C120" s="0">
-        <v>17.216095517594042</v>
+        <v>17</v>
       </c>
       <c r="D120" s="0">
         <v>7.7506523747006764</v>
@@ -7526,7 +7526,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>16.626112555541198</v>
+        <v>17</v>
       </c>
       <c r="D121" s="0">
         <v>7.7674476071780587</v>
@@ -7588,7 +7588,7 @@
         <v>0.70000313645843426</v>
       </c>
       <c r="C122" s="0">
-        <v>16.720659851046207</v>
+        <v>17</v>
       </c>
       <c r="D122" s="0">
         <v>7.7403115894715215</v>
@@ -7650,7 +7650,7 @@
         <v>0.70000270987317803</v>
       </c>
       <c r="C123" s="0">
-        <v>16.729654119157068</v>
+        <v>17</v>
       </c>
       <c r="D123" s="0">
         <v>7.7646470062142967</v>
@@ -7712,7 +7712,7 @@
         <v>0.7000004426357731</v>
       </c>
       <c r="C124" s="0">
-        <v>16.98189358039804</v>
+        <v>17</v>
       </c>
       <c r="D124" s="0">
         <v>7.7668569953197153</v>
@@ -7774,7 +7774,7 @@
         <v>0.7000002690778151</v>
       </c>
       <c r="C125" s="0">
-        <v>16.652850368450785</v>
+        <v>17</v>
       </c>
       <c r="D125" s="0">
         <v>7.766877673818815</v>
@@ -7836,7 +7836,7 @@
         <v>0.70001202203113255</v>
       </c>
       <c r="C126" s="0">
-        <v>18.078834329078227</v>
+        <v>18</v>
       </c>
       <c r="D126" s="0">
         <v>7.76157703517908</v>
@@ -7898,7 +7898,7 @@
         <v>0.70000044205010048</v>
       </c>
       <c r="C127" s="0">
-        <v>16.565314504610402</v>
+        <v>17</v>
       </c>
       <c r="D127" s="0">
         <v>7.7671659147446617</v>
@@ -7960,7 +7960,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>18.125652607600944</v>
+        <v>18</v>
       </c>
       <c r="D128" s="0">
         <v>7.6708315449497357</v>
@@ -8022,7 +8022,7 @@
         <v>0.70000000600837309</v>
       </c>
       <c r="C129" s="0">
-        <v>17.363213743237164</v>
+        <v>17</v>
       </c>
       <c r="D129" s="0">
         <v>7.7671176348152207</v>
@@ -8084,7 +8084,7 @@
         <v>0.70000869836014878</v>
       </c>
       <c r="C130" s="0">
-        <v>17.08059457823596</v>
+        <v>17</v>
       </c>
       <c r="D130" s="0">
         <v>7.7654908257029955</v>
@@ -8146,7 +8146,7 @@
         <v>0.70000000380480376</v>
       </c>
       <c r="C131" s="0">
-        <v>16.863964383101322</v>
+        <v>17</v>
       </c>
       <c r="D131" s="0">
         <v>7.7330683614783435</v>
@@ -8208,7 +8208,7 @@
         <v>0.70001477592147254</v>
       </c>
       <c r="C132" s="0">
-        <v>17.018247782514429</v>
+        <v>17</v>
       </c>
       <c r="D132" s="0">
         <v>7.7706825289221753</v>
@@ -8270,7 +8270,7 @@
         <v>0.70000158352612563</v>
       </c>
       <c r="C133" s="0">
-        <v>17.003880603780807</v>
+        <v>17</v>
       </c>
       <c r="D133" s="0">
         <v>7.7706104363577984</v>
@@ -8332,7 +8332,7 @@
         <v>0.70002718364244976</v>
       </c>
       <c r="C134" s="0">
-        <v>17.421092170982327</v>
+        <v>17</v>
       </c>
       <c r="D134" s="0">
         <v>7.7724422071256125</v>
@@ -8394,7 +8394,7 @@
         <v>0.70000311755919253</v>
       </c>
       <c r="C135" s="0">
-        <v>17.335451126564084</v>
+        <v>17</v>
       </c>
       <c r="D135" s="0">
         <v>7.771111873388886</v>
@@ -8456,7 +8456,7 @@
         <v>0.70001430484859317</v>
       </c>
       <c r="C136" s="0">
-        <v>17.406553787706965</v>
+        <v>17</v>
       </c>
       <c r="D136" s="0">
         <v>7.8013727431829718</v>
@@ -8518,7 +8518,7 @@
         <v>0.70001430484859317</v>
       </c>
       <c r="C137" s="0">
-        <v>17.409755265615612</v>
+        <v>17</v>
       </c>
       <c r="D137" s="0">
         <v>7.8013727431829718</v>
@@ -8580,7 +8580,7 @@
         <v>0.70006200038615751</v>
       </c>
       <c r="C138" s="0">
-        <v>16.854378917359423</v>
+        <v>17</v>
       </c>
       <c r="D138" s="0">
         <v>7.7722444990908643</v>
@@ -8642,7 +8642,7 @@
         <v>0.70000522228464135</v>
       </c>
       <c r="C139" s="0">
-        <v>16.937972532392003</v>
+        <v>17</v>
       </c>
       <c r="D139" s="0">
         <v>7.7504690785577797</v>
@@ -8704,7 +8704,7 @@
         <v>0.70000622644434296</v>
       </c>
       <c r="C140" s="0">
-        <v>17.922441027505968</v>
+        <v>18</v>
       </c>
       <c r="D140" s="0">
         <v>7.6959405734254442</v>
@@ -8766,7 +8766,7 @@
         <v>0.70000522228464135</v>
       </c>
       <c r="C141" s="0">
-        <v>16.855304032999459</v>
+        <v>17</v>
       </c>
       <c r="D141" s="0">
         <v>7.7719090388206267</v>
@@ -8828,7 +8828,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>18.361291732632623</v>
+        <v>18</v>
       </c>
       <c r="D142" s="0">
         <v>7.8256384548882245</v>
@@ -8890,7 +8890,7 @@
         <v>0.70012235837728687</v>
       </c>
       <c r="C143" s="0">
-        <v>16.560915946244478</v>
+        <v>17</v>
       </c>
       <c r="D143" s="0">
         <v>7.7719392876412012</v>
@@ -8952,7 +8952,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>18.361291732632623</v>
+        <v>18</v>
       </c>
       <c r="D144" s="0">
         <v>7.8256384548882245</v>
@@ -9014,7 +9014,7 @@
         <v>0.7000300576197207</v>
       </c>
       <c r="C145" s="0">
-        <v>16.513474688034901</v>
+        <v>17</v>
       </c>
       <c r="D145" s="0">
         <v>7.690191672209358</v>
@@ -9076,7 +9076,7 @@
         <v>0.70000048493204736</v>
       </c>
       <c r="C146" s="0">
-        <v>18.292830340818092</v>
+        <v>18</v>
       </c>
       <c r="D146" s="0">
         <v>7.8027113651993583</v>
@@ -9138,7 +9138,7 @@
         <v>0.70000000535850371</v>
       </c>
       <c r="C147" s="0">
-        <v>16.567411960394164</v>
+        <v>17</v>
       </c>
       <c r="D147" s="0">
         <v>7.8305463862429292</v>
@@ -9200,7 +9200,7 @@
         <v>0.70548668801254655</v>
       </c>
       <c r="C148" s="0">
-        <v>17.515004508509037</v>
+        <v>18</v>
       </c>
       <c r="D148" s="0">
         <v>7.7405745984028913</v>
@@ -9262,7 +9262,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>17.747416513343964</v>
+        <v>18</v>
       </c>
       <c r="D149" s="0">
         <v>7.8015258675883326</v>
@@ -9324,7 +9324,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>16.510000000000002</v>
+        <v>17</v>
       </c>
       <c r="D150" s="0">
         <v>7.8280673773238334</v>
@@ -9386,7 +9386,7 @@
         <v>0.70000034452978521</v>
       </c>
       <c r="C151" s="0">
-        <v>17.463805719826741</v>
+        <v>17</v>
       </c>
       <c r="D151" s="0">
         <v>7.8036717473759358</v>
@@ -9448,7 +9448,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C152" s="0">
-        <v>16.81104949605016</v>
+        <v>17</v>
       </c>
       <c r="D152" s="0">
         <v>7.7686764448444183</v>
@@ -9510,7 +9510,7 @@
         <v>0.70000001310931781</v>
       </c>
       <c r="C153" s="0">
-        <v>17.464247977984964</v>
+        <v>17</v>
       </c>
       <c r="D153" s="0">
         <v>7.7900483118585893</v>
@@ -9572,7 +9572,7 @@
         <v>0.70004150653021735</v>
       </c>
       <c r="C154" s="0">
-        <v>16.774754318596869</v>
+        <v>17</v>
       </c>
       <c r="D154" s="0">
         <v>7.8036032031785094</v>
@@ -9634,7 +9634,7 @@
         <v>0.70000000000692664</v>
       </c>
       <c r="C155" s="0">
-        <v>16.510000000000005</v>
+        <v>17</v>
       </c>
       <c r="D155" s="0">
         <v>7.7688759701474233</v>
@@ -9696,7 +9696,7 @@
         <v>0.70003926131386751</v>
       </c>
       <c r="C156" s="0">
-        <v>17.457355308562025</v>
+        <v>17</v>
       </c>
       <c r="D156" s="0">
         <v>7.7910804444000634</v>
@@ -9758,7 +9758,7 @@
         <v>0.7001293988555366</v>
       </c>
       <c r="C157" s="0">
-        <v>16.517989952314629</v>
+        <v>17</v>
       </c>
       <c r="D157" s="0">
         <v>7.7663067040586364</v>
@@ -9820,7 +9820,7 @@
         <v>0.70000000000692664</v>
       </c>
       <c r="C158" s="0">
-        <v>16.510000000000002</v>
+        <v>17</v>
       </c>
       <c r="D158" s="0">
         <v>7.753768333387062</v>
@@ -9882,7 +9882,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C159" s="0">
-        <v>18.921237465703111</v>
+        <v>19</v>
       </c>
       <c r="D159" s="0">
         <v>7.7717205198950676</v>
@@ -9944,7 +9944,7 @@
         <v>0.70013792080420334</v>
       </c>
       <c r="C160" s="0">
-        <v>16.52569003332837</v>
+        <v>17</v>
       </c>
       <c r="D160" s="0">
         <v>7.7681906738291548</v>
@@ -10006,7 +10006,7 @@
         <v>0.70000000000692653</v>
       </c>
       <c r="C161" s="0">
-        <v>16.510000000000002</v>
+        <v>17</v>
       </c>
       <c r="D161" s="0">
         <v>7.7688759701474241</v>
@@ -10068,7 +10068,7 @@
         <v>0.71596075784583912</v>
       </c>
       <c r="C162" s="0">
-        <v>16.627304848745556</v>
+        <v>17</v>
       </c>
       <c r="D162" s="0">
         <v>7.8017953418514754</v>
@@ -10130,7 +10130,7 @@
         <v>0.70027722891064492</v>
       </c>
       <c r="C163" s="0">
-        <v>16.510000000000002</v>
+        <v>17</v>
       </c>
       <c r="D163" s="0">
         <v>7.7611695040883362</v>
@@ -10192,7 +10192,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C164" s="0">
-        <v>16.513459986365191</v>
+        <v>17</v>
       </c>
       <c r="D164" s="0">
         <v>7.8203168485087922</v>
@@ -10254,7 +10254,7 @@
         <v>0.71172063434871025</v>
       </c>
       <c r="C165" s="0">
-        <v>16.875265584029865</v>
+        <v>17</v>
       </c>
       <c r="D165" s="0">
         <v>7.763164550371803</v>
@@ -10316,7 +10316,7 @@
         <v>0.70027618249134815</v>
       </c>
       <c r="C166" s="0">
-        <v>16.510000000000002</v>
+        <v>17</v>
       </c>
       <c r="D166" s="0">
         <v>7.8207231930260974</v>
@@ -10378,7 +10378,7 @@
         <v>0.70004657076878596</v>
       </c>
       <c r="C167" s="0">
-        <v>16.601852203314909</v>
+        <v>17</v>
       </c>
       <c r="D167" s="0">
         <v>7.7852668360925605</v>
@@ -10440,7 +10440,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C168" s="0">
-        <v>16.626889615843396</v>
+        <v>17</v>
       </c>
       <c r="D168" s="0">
         <v>7.7525140047806289</v>
@@ -10502,7 +10502,7 @@
         <v>0.70001235062893508</v>
       </c>
       <c r="C169" s="0">
-        <v>18.676875292320105</v>
+        <v>19</v>
       </c>
       <c r="D169" s="0">
         <v>7.8515278725642688</v>
@@ -10564,7 +10564,7 @@
         <v>0.70000906031727217</v>
       </c>
       <c r="C170" s="0">
-        <v>16.907283368510178</v>
+        <v>17</v>
       </c>
       <c r="D170" s="0">
         <v>7.8207231930260974</v>
@@ -10626,7 +10626,7 @@
         <v>0.71657099241150302</v>
       </c>
       <c r="C171" s="0">
-        <v>16.980920030502364</v>
+        <v>17</v>
       </c>
       <c r="D171" s="0">
         <v>7.8256215592859188</v>
@@ -10688,7 +10688,7 @@
         <v>0.71172965659255838</v>
       </c>
       <c r="C172" s="0">
-        <v>16.872235538284329</v>
+        <v>17</v>
       </c>
       <c r="D172" s="0">
         <v>7.8015994611073332</v>
@@ -10750,7 +10750,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C173" s="0">
-        <v>16.626878568298281</v>
+        <v>17</v>
       </c>
       <c r="D173" s="0">
         <v>7.7693543421333491</v>
@@ -10812,7 +10812,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C174" s="0">
-        <v>16.884321287433657</v>
+        <v>17</v>
       </c>
       <c r="D174" s="0">
         <v>7.7331437653799151</v>
@@ -10874,7 +10874,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C175" s="0">
-        <v>16.901450582319313</v>
+        <v>17</v>
       </c>
       <c r="D175" s="0">
         <v>7.7517005748822827</v>
@@ -10936,7 +10936,7 @@
         <v>0.70000000042067612</v>
       </c>
       <c r="C176" s="0">
-        <v>16.901405889456221</v>
+        <v>17</v>
       </c>
       <c r="D176" s="0">
         <v>7.7517023469849518</v>
@@ -10998,7 +10998,7 @@
         <v>0.7003240821918324</v>
       </c>
       <c r="C177" s="0">
-        <v>18.716784208910717</v>
+        <v>19</v>
       </c>
       <c r="D177" s="0">
         <v>7.7937295985764994</v>
@@ -11060,7 +11060,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C178" s="0">
-        <v>16.838078304577316</v>
+        <v>17</v>
       </c>
       <c r="D178" s="0">
         <v>7.7520146810193999</v>
@@ -11122,7 +11122,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C179" s="0">
-        <v>16.957661739682678</v>
+        <v>17</v>
       </c>
       <c r="D179" s="0">
         <v>7.7804753385052425</v>
@@ -11184,7 +11184,7 @@
         <v>0.70043356132932444</v>
       </c>
       <c r="C180" s="0">
-        <v>16.735215048162146</v>
+        <v>17</v>
       </c>
       <c r="D180" s="0">
         <v>7.7518546944752922</v>
@@ -11246,7 +11246,7 @@
         <v>0.7113556909417067</v>
       </c>
       <c r="C181" s="0">
-        <v>18.326011745633959</v>
+        <v>18</v>
       </c>
       <c r="D181" s="0">
         <v>7.7715736844422718</v>
@@ -11308,7 +11308,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C182" s="0">
-        <v>16.583991815372098</v>
+        <v>17</v>
       </c>
       <c r="D182" s="0">
         <v>7.7912593693733072</v>
@@ -11370,7 +11370,7 @@
         <v>0.70001850821373557</v>
       </c>
       <c r="C183" s="0">
-        <v>17.928321037237801</v>
+        <v>18</v>
       </c>
       <c r="D183" s="0">
         <v>7.7644716276402654</v>
@@ -11432,7 +11432,7 @@
         <v>0.70000003001360311</v>
       </c>
       <c r="C184" s="0">
-        <v>17.308568105251503</v>
+        <v>17</v>
       </c>
       <c r="D184" s="0">
         <v>7.7183300077369097</v>
@@ -11494,7 +11494,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C185" s="0">
-        <v>16.510000000000005</v>
+        <v>17</v>
       </c>
       <c r="D185" s="0">
         <v>7.7579729066861329</v>
@@ -11556,7 +11556,7 @@
         <v>0.70000475070037549</v>
       </c>
       <c r="C186" s="0">
-        <v>16.868658642627679</v>
+        <v>17</v>
       </c>
       <c r="D186" s="0">
         <v>7.7151512018721728</v>
@@ -11618,7 +11618,7 @@
         <v>0.70416996471083071</v>
       </c>
       <c r="C187" s="0">
-        <v>16.510000000000005</v>
+        <v>17</v>
       </c>
       <c r="D187" s="0">
         <v>7.731088256068376</v>
@@ -11680,7 +11680,7 @@
         <v>0.70009131354978293</v>
       </c>
       <c r="C188" s="0">
-        <v>17.178665933901193</v>
+        <v>17</v>
       </c>
       <c r="D188" s="0">
         <v>7.756232002414551</v>
@@ -11742,7 +11742,7 @@
         <v>0.70000033452147281</v>
       </c>
       <c r="C189" s="0">
-        <v>19.89409466675783</v>
+        <v>20</v>
       </c>
       <c r="D189" s="0">
         <v>7.7411837814379965</v>
@@ -11804,7 +11804,7 @@
         <v>0.70027311788475355</v>
       </c>
       <c r="C190" s="0">
-        <v>16.519367107581733</v>
+        <v>17</v>
       </c>
       <c r="D190" s="0">
         <v>7.7527898139700238</v>
@@ -11866,7 +11866,7 @@
         <v>0.70012201000660357</v>
       </c>
       <c r="C191" s="0">
-        <v>17.8109968702095</v>
+        <v>18</v>
       </c>
       <c r="D191" s="0">
         <v>7.7617668152204988</v>
@@ -11928,7 +11928,7 @@
         <v>0.70551917815465981</v>
       </c>
       <c r="C192" s="0">
-        <v>19.034512892443271</v>
+        <v>19</v>
       </c>
       <c r="D192" s="0">
         <v>7.7881424914016968</v>
@@ -11990,7 +11990,7 @@
         <v>0.70000213259635446</v>
       </c>
       <c r="C193" s="0">
-        <v>16.619632521071495</v>
+        <v>17</v>
       </c>
       <c r="D193" s="0">
         <v>7.7002583016964268</v>
@@ -12052,7 +12052,7 @@
         <v>0.70000207794542002</v>
       </c>
       <c r="C194" s="0">
-        <v>17.538525955711442</v>
+        <v>18</v>
       </c>
       <c r="D194" s="0">
         <v>7.6998311774768933</v>
@@ -12114,7 +12114,7 @@
         <v>0.70000164671251552</v>
       </c>
       <c r="C195" s="0">
-        <v>17.41129458526482</v>
+        <v>17</v>
       </c>
       <c r="D195" s="0">
         <v>7.7846715988020181</v>
@@ -12176,7 +12176,7 @@
         <v>0.70000025947077227</v>
       </c>
       <c r="C196" s="0">
-        <v>16.831681663617406</v>
+        <v>17</v>
       </c>
       <c r="D196" s="0">
         <v>7.7567221028586752</v>
@@ -12238,7 +12238,7 @@
         <v>0.71047363054313362</v>
       </c>
       <c r="C197" s="0">
-        <v>16.518849660802051</v>
+        <v>17</v>
       </c>
       <c r="D197" s="0">
         <v>7.7881732823979348</v>
@@ -12300,7 +12300,7 @@
         <v>0.70390072339927034</v>
       </c>
       <c r="C198" s="0">
-        <v>17.844473050307457</v>
+        <v>18</v>
       </c>
       <c r="D198" s="0">
         <v>7.7548142472166486</v>
@@ -12362,7 +12362,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C199" s="0">
-        <v>16.952951256361647</v>
+        <v>17</v>
       </c>
       <c r="D199" s="0">
         <v>7.7881737099794446</v>
@@ -12424,7 +12424,7 @@
         <v>0.70000000108367777</v>
       </c>
       <c r="C200" s="0">
-        <v>16.757743118708891</v>
+        <v>17</v>
       </c>
       <c r="D200" s="0">
         <v>7.7536719979430195</v>
@@ -12486,7 +12486,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C201" s="0">
-        <v>17.323316865237665</v>
+        <v>17</v>
       </c>
       <c r="D201" s="0">
         <v>7.7537062010800772</v>
@@ -12548,7 +12548,7 @@
         <v>0.70000000233814497</v>
       </c>
       <c r="C202" s="0">
-        <v>16.546356582100401</v>
+        <v>17</v>
       </c>
       <c r="D202" s="0">
         <v>7.7079344715923899</v>
@@ -12610,7 +12610,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C203" s="0">
-        <v>16.665566086562961</v>
+        <v>17</v>
       </c>
       <c r="D203" s="0">
         <v>7.7617662342551634</v>
@@ -12672,7 +12672,7 @@
         <v>0.71216477679661283</v>
       </c>
       <c r="C204" s="0">
-        <v>17.473096418261555</v>
+        <v>17</v>
       </c>
       <c r="D204" s="0">
         <v>7.7843895106428889</v>
@@ -12734,7 +12734,7 @@
         <v>0.70071794397388176</v>
       </c>
       <c r="C205" s="0">
-        <v>19.124117550978728</v>
+        <v>19</v>
       </c>
       <c r="D205" s="0">
         <v>7.8121224895990897</v>
@@ -12796,7 +12796,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C206" s="0">
-        <v>17.003043481967197</v>
+        <v>17</v>
       </c>
       <c r="D206" s="0">
         <v>7.7503015653995044</v>
@@ -12858,7 +12858,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C207" s="0">
-        <v>16.862195531780003</v>
+        <v>17</v>
       </c>
       <c r="D207" s="0">
         <v>7.7756829702532686</v>
@@ -12920,7 +12920,7 @@
         <v>0.71398395605143239</v>
       </c>
       <c r="C208" s="0">
-        <v>18.840697094236219</v>
+        <v>19</v>
       </c>
       <c r="D208" s="0">
         <v>7.8597449970594866</v>
@@ -12982,7 +12982,7 @@
         <v>0.70000047956983924</v>
       </c>
       <c r="C209" s="0">
-        <v>18.658826455772036</v>
+        <v>19</v>
       </c>
       <c r="D209" s="0">
         <v>7.7506764660379046</v>
@@ -13044,7 +13044,7 @@
         <v>0.70000213204192452</v>
       </c>
       <c r="C210" s="0">
-        <v>17.907298233047605</v>
+        <v>18</v>
       </c>
       <c r="D210" s="0">
         <v>7.6319716346554465</v>
@@ -13106,7 +13106,7 @@
         <v>0.7000220182543595</v>
       </c>
       <c r="C211" s="0">
-        <v>16.90401854327505</v>
+        <v>17</v>
       </c>
       <c r="D211" s="0">
         <v>7.6692644058504147</v>
@@ -13168,7 +13168,7 @@
         <v>0.70682958563429121</v>
       </c>
       <c r="C212" s="0">
-        <v>19.700283218567375</v>
+        <v>20</v>
       </c>
       <c r="D212" s="0">
         <v>7.7614095503365821</v>
@@ -13230,7 +13230,7 @@
         <v>0.70000592035676601</v>
       </c>
       <c r="C213" s="0">
-        <v>17.120073301938675</v>
+        <v>17</v>
       </c>
       <c r="D213" s="0">
         <v>7.7753293502241476</v>
@@ -13292,7 +13292,7 @@
         <v>0.7000062483036531</v>
       </c>
       <c r="C214" s="0">
-        <v>18.102365250620835</v>
+        <v>18</v>
       </c>
       <c r="D214" s="0">
         <v>7.7707852122380894</v>
@@ -13354,7 +13354,7 @@
         <v>0.70352254700391348</v>
       </c>
       <c r="C215" s="0">
-        <v>16.879063316064361</v>
+        <v>17</v>
       </c>
       <c r="D215" s="0">
         <v>7.7700592338879808</v>
@@ -13416,7 +13416,7 @@
         <v>0.70051773208582369</v>
       </c>
       <c r="C216" s="0">
-        <v>17.35637416664062</v>
+        <v>17</v>
       </c>
       <c r="D216" s="0">
         <v>7.740132072556511</v>
@@ -13478,7 +13478,7 @@
         <v>0.70000050537782288</v>
       </c>
       <c r="C217" s="0">
-        <v>19.465865489582967</v>
+        <v>19</v>
       </c>
       <c r="D217" s="0">
         <v>7.781585244395238</v>
@@ -13540,7 +13540,7 @@
         <v>0.7071792232139662</v>
       </c>
       <c r="C218" s="0">
-        <v>17.281753416259647</v>
+        <v>17</v>
       </c>
       <c r="D218" s="0">
         <v>7.7614095503365821</v>
@@ -13602,7 +13602,7 @@
         <v>0.70300762011644424</v>
       </c>
       <c r="C219" s="0">
-        <v>17.332210166015393</v>
+        <v>17</v>
       </c>
       <c r="D219" s="0">
         <v>7.7794461582697174</v>
@@ -13664,7 +13664,7 @@
         <v>0.70093440661671869</v>
       </c>
       <c r="C220" s="0">
-        <v>16.847429106810296</v>
+        <v>17</v>
       </c>
       <c r="D220" s="0">
         <v>7.8498962135746719</v>
@@ -13726,7 +13726,7 @@
         <v>0.70008283773861657</v>
       </c>
       <c r="C221" s="0">
-        <v>16.899513536034576</v>
+        <v>17</v>
       </c>
       <c r="D221" s="0">
         <v>7.848805276104132</v>
@@ -13788,7 +13788,7 @@
         <v>0.70000003672067634</v>
       </c>
       <c r="C222" s="0">
-        <v>16.999123468303353</v>
+        <v>17</v>
       </c>
       <c r="D222" s="0">
         <v>7.7811673603248579</v>
@@ -13850,7 +13850,7 @@
         <v>0.7000048031587186</v>
       </c>
       <c r="C223" s="0">
-        <v>17.547608451624733</v>
+        <v>18</v>
       </c>
       <c r="D223" s="0">
         <v>7.7833008498166194</v>
@@ -13912,7 +13912,7 @@
         <v>0.70001518912978544</v>
       </c>
       <c r="C224" s="0">
-        <v>17.211205068819563</v>
+        <v>17</v>
       </c>
       <c r="D224" s="0">
         <v>7.7618669351123746</v>
@@ -13974,7 +13974,7 @@
         <v>0.7000618158664047</v>
       </c>
       <c r="C225" s="0">
-        <v>17.289342831125975</v>
+        <v>17</v>
       </c>
       <c r="D225" s="0">
         <v>7.915345379515518</v>
@@ -14036,7 +14036,7 @@
         <v>0.70001419555682687</v>
       </c>
       <c r="C226" s="0">
-        <v>17.391074691783452</v>
+        <v>17</v>
       </c>
       <c r="D226" s="0">
         <v>7.7613309384715077</v>
@@ -14098,7 +14098,7 @@
         <v>0.70003106171881657</v>
       </c>
       <c r="C227" s="0">
-        <v>19.484454703650403</v>
+        <v>19</v>
       </c>
       <c r="D227" s="0">
         <v>7.7782359386006883</v>
@@ -14160,7 +14160,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C228" s="0">
-        <v>16.943347390954639</v>
+        <v>17</v>
       </c>
       <c r="D228" s="0">
         <v>7.8728854241795077</v>
@@ -14222,7 +14222,7 @@
         <v>0.70003390546433009</v>
       </c>
       <c r="C229" s="0">
-        <v>16.774276436473855</v>
+        <v>17</v>
       </c>
       <c r="D229" s="0">
         <v>7.7782548813174994</v>
@@ -14284,7 +14284,7 @@
         <v>0.70003289554394943</v>
       </c>
       <c r="C230" s="0">
-        <v>16.710395025444615</v>
+        <v>17</v>
       </c>
       <c r="D230" s="0">
         <v>7.779713728184924</v>
@@ -14346,7 +14346,7 @@
         <v>0.70003144748899004</v>
       </c>
       <c r="C231" s="0">
-        <v>16.774980498101385</v>
+        <v>17</v>
       </c>
       <c r="D231" s="0">
         <v>7.7827156846781209</v>
@@ -14408,7 +14408,7 @@
         <v>0.70000465654351673</v>
       </c>
       <c r="C232" s="0">
-        <v>16.774980498101382</v>
+        <v>17</v>
       </c>
       <c r="D232" s="0">
         <v>7.7782260501550358</v>
@@ -14470,7 +14470,7 @@
         <v>0.72191386470860119</v>
       </c>
       <c r="C233" s="0">
-        <v>16.988566913192809</v>
+        <v>17</v>
       </c>
       <c r="D233" s="0">
         <v>7.7659479898149044</v>
@@ -14532,7 +14532,7 @@
         <v>0.70000438542821108</v>
       </c>
       <c r="C234" s="0">
-        <v>16.967801923347672</v>
+        <v>17</v>
       </c>
       <c r="D234" s="0">
         <v>7.8361139738313383</v>
@@ -14594,7 +14594,7 @@
         <v>0.70037394671984088</v>
       </c>
       <c r="C235" s="0">
-        <v>17.712727531627806</v>
+        <v>18</v>
       </c>
       <c r="D235" s="0">
         <v>7.7625247964070709</v>
@@ -14656,7 +14656,7 @@
         <v>0.70065483087032643</v>
       </c>
       <c r="C236" s="0">
-        <v>16.912757508848731</v>
+        <v>17</v>
       </c>
       <c r="D236" s="0">
         <v>7.7696072141832522</v>
@@ -14718,7 +14718,7 @@
         <v>0.70004870751014414</v>
       </c>
       <c r="C237" s="0">
-        <v>16.57739662158486</v>
+        <v>17</v>
       </c>
       <c r="D237" s="0">
         <v>7.7597009866870712</v>
@@ -14780,7 +14780,7 @@
         <v>0.70000004718710085</v>
       </c>
       <c r="C238" s="0">
-        <v>16.588257973162797</v>
+        <v>17</v>
       </c>
       <c r="D238" s="0">
         <v>7.7623093341858933</v>
@@ -14842,7 +14842,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C239" s="0">
-        <v>16.55212977792149</v>
+        <v>17</v>
       </c>
       <c r="D239" s="0">
         <v>7.6990650008398642</v>
@@ -14904,7 +14904,7 @@
         <v>0.70111695296274279</v>
       </c>
       <c r="C240" s="0">
-        <v>20.642118424725091</v>
+        <v>21</v>
       </c>
       <c r="D240" s="0">
         <v>7.8423747801232828</v>
@@ -14966,7 +14966,7 @@
         <v>0.71263017283049201</v>
       </c>
       <c r="C241" s="0">
-        <v>19.198291416759762</v>
+        <v>19</v>
       </c>
       <c r="D241" s="0">
         <v>7.8118043523084459</v>
@@ -15028,7 +15028,7 @@
         <v>0.70000000070561497</v>
       </c>
       <c r="C242" s="0">
-        <v>17.484200961588037</v>
+        <v>17</v>
       </c>
       <c r="D242" s="0">
         <v>7.7540452509631024</v>
@@ -15090,7 +15090,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C243" s="0">
-        <v>16.800894638471725</v>
+        <v>17</v>
       </c>
       <c r="D243" s="0">
         <v>7.7589152600343221</v>
@@ -15152,7 +15152,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C244" s="0">
-        <v>17.445444572053503</v>
+        <v>17</v>
       </c>
       <c r="D244" s="0">
         <v>7.8118043523084459</v>
@@ -15214,7 +15214,7 @@
         <v>0.70000000331507017</v>
       </c>
       <c r="C245" s="0">
-        <v>17.517250418481225</v>
+        <v>18</v>
       </c>
       <c r="D245" s="0">
         <v>7.7530905635380671</v>
@@ -15276,7 +15276,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C246" s="0">
-        <v>16.712914041768986</v>
+        <v>17</v>
       </c>
       <c r="D246" s="0">
         <v>7.8440064189935708</v>
@@ -15338,7 +15338,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C247" s="0">
-        <v>16.786601474906195</v>
+        <v>17</v>
       </c>
       <c r="D247" s="0">
         <v>7.8189515575667308</v>
@@ -15400,7 +15400,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C248" s="0">
-        <v>16.757890112773278</v>
+        <v>17</v>
       </c>
       <c r="D248" s="0">
         <v>7.7902408877250036</v>
@@ -15462,7 +15462,7 @@
         <v>0.70004907127198901</v>
       </c>
       <c r="C249" s="0">
-        <v>17.487833142250746</v>
+        <v>17</v>
       </c>
       <c r="D249" s="0">
         <v>7.7554526870387637</v>
@@ -15524,7 +15524,7 @@
         <v>0.70036211789095848</v>
       </c>
       <c r="C250" s="0">
-        <v>16.824360134425191</v>
+        <v>17</v>
       </c>
       <c r="D250" s="0">
         <v>7.727561491978209</v>
@@ -15586,7 +15586,7 @@
         <v>0.70000008751690512</v>
       </c>
       <c r="C251" s="0">
-        <v>16.975509352519403</v>
+        <v>17</v>
       </c>
       <c r="D251" s="0">
         <v>7.7420438564063687</v>
@@ -15648,7 +15648,7 @@
         <v>0.70000255033950542</v>
       </c>
       <c r="C252" s="0">
-        <v>17.347566284749163</v>
+        <v>17</v>
       </c>
       <c r="D252" s="0">
         <v>7.8674256699543195</v>
@@ -15710,7 +15710,7 @@
         <v>0.7000024265294621</v>
       </c>
       <c r="C253" s="0">
-        <v>16.775236945847752</v>
+        <v>17</v>
       </c>
       <c r="D253" s="0">
         <v>7.7592543168155856</v>
@@ -15772,7 +15772,7 @@
         <v>0.70001849648693271</v>
       </c>
       <c r="C254" s="0">
-        <v>16.908795451109413</v>
+        <v>17</v>
       </c>
       <c r="D254" s="0">
         <v>7.7574058616359096</v>
@@ -15834,7 +15834,7 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="C255" s="0">
-        <v>16.969058594935863</v>
+        <v>17</v>
       </c>
       <c r="D255" s="0">
         <v>7.8674958385173923</v>
@@ -15896,7 +15896,7 @@
         <v>0.70000253968535109</v>
       </c>
       <c r="C256" s="0">
-        <v>16.779753515266822</v>
+        <v>17</v>
       </c>
       <c r="D256" s="0">
         <v>7.7592543168155856</v>
@@ -15958,7 +15958,7 @@
         <v>0.70000176343366316</v>
       </c>
       <c r="C257" s="0">
-        <v>17.664299617151634</v>
+        <v>18</v>
       </c>
       <c r="D257" s="0">
         <v>7.8392424498190927</v>
@@ -16020,7 +16020,7 @@
         <v>0.70000247495499246</v>
       </c>
       <c r="C258" s="0">
-        <v>16.775236945847752</v>
+        <v>17</v>
       </c>
       <c r="D258" s="0">
         <v>7.7592543168155856</v>
@@ -16082,7 +16082,7 @@
         <v>0.7000000727566299</v>
       </c>
       <c r="C259" s="0">
-        <v>16.905131795499251</v>
+        <v>17</v>
       </c>
       <c r="D259" s="0">
         <v>7.7077604818592302</v>
